--- a/Lab9/Lab9 Monday.xlsx
+++ b/Lab9/Lab9 Monday.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <r>
       <rPr>
@@ -328,6 +328,9 @@
       </rPr>
       <t>(st.d of  mean)</t>
     </r>
+  </si>
+  <si>
+    <t>HRA60 Heart Rate After Stairs</t>
   </si>
 </sst>
 </file>
@@ -498,16 +501,10 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -520,6 +517,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -538,6 +541,1234 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HRA60</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{246CEF59-7048-435D-9B60-D830F395101A}" formatIdx="0">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="clusteredColumn" hidden="1" uniqueId="{5B226854-46BA-445A-815C-1CFC5ABF5EEC}" formatIdx="1">
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>HRI</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{0EEF797F-65F9-4247-B853-6FBE252DB02F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>(HRI) Difference</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>783981</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>769328</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>155329</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,7 +2037,7 @@
   <dimension ref="B2:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -825,13 +2056,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="42" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -858,15 +2089,15 @@
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="I6" s="14" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="I6" s="20" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="15"/>
@@ -877,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
@@ -1106,7 +2337,7 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="15"/>
@@ -1200,7 +2431,7 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J19" s="15"/>
@@ -1280,10 +2511,10 @@
       <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="21"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2">
@@ -1304,10 +2535,10 @@
       <c r="I23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="21"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2">
@@ -1328,7 +2559,7 @@
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="14" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="15"/>
@@ -1414,6 +2645,48 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C7:D7"/>
@@ -1430,51 +2703,10 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="J23:K23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>